--- a/Datasets/UDATASET_original.xlsx
+++ b/Datasets/UDATASET_original.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monika/Desktop/DP/DP_QSAR_Skin_Irritation/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB7DE35-9F1F-3F4B-AAD8-2B0148A21CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0BE898-A346-F245-8FB2-40D766C5DBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" xr2:uid="{D0A6A844-1B67-D942-A0D5-1F2C443122EF}"/>
   </bookViews>
@@ -7947,8 +7947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8602C436-17FD-B84C-95ED-19314CB95C4C}">
   <dimension ref="A1:G447"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="C195" sqref="C195"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
